--- a/data_samples/archived/week-8/next-week.xlsx
+++ b/data_samples/archived/week-8/next-week.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D60B7B-C0E5-41AE-9054-A56A04632232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06FAEC2-A425-40B9-8A36-487810F57DCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:H2253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,10 +596,10 @@
         <v>44325</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>21</v>

--- a/data_samples/archived/week-8/next-week.xlsx
+++ b/data_samples/archived/week-8/next-week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06FAEC2-A425-40B9-8A36-487810F57DCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A4FFF-4DE9-4672-B5B9-CFBF2467BBF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -205,7 +205,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -550,7 +549,7 @@
   <dimension ref="A1:H2253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,11 +603,13 @@
       <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="14">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="H2" s="5">
         <v>2.5299999999999998</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1.52</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -624,10 +625,12 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="5">
         <v>1.34</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="5">
         <v>3.29</v>
       </c>
     </row>
@@ -644,10 +647,12 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="5">
         <v>3.05</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="5">
         <v>1.38</v>
       </c>
     </row>
@@ -661,13 +666,15 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="14">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="5">
         <v>4.45</v>
       </c>
     </row>
@@ -684,10 +691,12 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="5">
         <v>1.22</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="5">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -704,10 +713,12 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="5">
         <v>3.3</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="5">
         <v>1.34</v>
       </c>
     </row>
@@ -724,10 +735,12 @@
       <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="14">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="5">
         <v>1.9</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="5">
         <v>1.94</v>
       </c>
     </row>
@@ -744,10 +757,12 @@
       <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="14">
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="5">
         <v>1.46</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="5">
         <v>2.75</v>
       </c>
     </row>
@@ -764,10 +779,12 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="14">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="5">
         <v>1.62</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="5">
         <v>2.31</v>
       </c>
     </row>
